--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myrtj\Desktop\School\Lets_Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myrtj\Desktop\School\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6357367B-E834-4F5E-8254-6E17CC5675E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E3F38-9A49-4BEC-8718-AC4C76A33EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BA635E0B-6459-4F7B-A570-F0750F645C53}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,11 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -446,7 +445,7 @@
   <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,17 +567,9 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -587,45 +578,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
       <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
     </row>
   </sheetData>
